--- a/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2022.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2022.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de formation :</t>
+    <t xml:space="preserve">NOM et prénom : Nezout Marc-Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° candidat : 02143504407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de formation :Lycée Gustave Eiffel</t>
   </si>
   <si>
     <t xml:space="preserve">Option :</t>
@@ -116,27 +116,94 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amphitryon</t>
+    <t xml:space="preserve">AP 1- M2L réservationSalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/09/2021 au 29/09/2020</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">AP 2- M2L réservationSalle Statistiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/11/2020 au 24/11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 2.1- Générateur SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/01/2021 au 26/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 2.2- Cybersécurité Identité numérique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 2.3- M2L-JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/02/2021 au 02/03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 2.4- Site Statique M2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/03/2021 au 23/03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 2.5- GSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/03/2021 au 13/04/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 3.1- M2L Site Dynamique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/09/2021 au 15/10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 3.2- MeetingsBooker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2021 au 10/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP 3.3- Amphitryon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/01/2022 au 8/04/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
+    <t xml:space="preserve">Stage VIPNET (mai-juin 2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2021 au 24/06/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage Rivecol (janvier-mars 2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/01/2002 au 11/03/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +285,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,7 +586,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,39 +651,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,21 +784,82 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Cadre de texte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14352840" y="1677240"/>
+          <a:ext cx="180720" cy="189360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="fr-FR" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="9" style="0" width="10.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="10.84"/>
@@ -855,145 +990,251 @@
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>44229</v>
+      </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="19"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="19"/>
     </row>
     <row r="14" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
     </row>
     <row r="16" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
     </row>
     <row r="17" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" s="13" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+    <row r="18" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1003,7 +1244,7 @@
     </row>
     <row r="22" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1011,29 +1252,43 @@
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+    <row r="23" s="13" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1042,117 +1297,40 @@
       <c r="H25" s="19"/>
     </row>
     <row r="26" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" s="13" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" s="13" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:F1"/>
@@ -1164,8 +1342,8 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1174,5 +1352,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>